--- a/database/industries/palayesh/shetran/cost/yearly.xlsx
+++ b/database/industries/palayesh/shetran/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158130E3-B5F1-497A-A8ED-6032F8F52B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAAF60F-388D-46AE-AE20-E7CC8CD83FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -638,12 +638,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,7 +653,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +721,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -753,95 +753,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>161288243</v>
+        <v>335966876</v>
       </c>
       <c r="F10" s="9">
-        <v>335966876</v>
+        <v>523512700</v>
       </c>
       <c r="G10" s="9">
-        <v>523512700</v>
+        <v>620252949</v>
       </c>
       <c r="H10" s="9">
-        <v>620252949</v>
+        <v>1284638480</v>
       </c>
       <c r="I10" s="9">
-        <v>1284638480</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1889561894</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>227729</v>
+        <v>292052</v>
       </c>
       <c r="F11" s="11">
-        <v>292052</v>
+        <v>384737</v>
       </c>
       <c r="G11" s="11">
-        <v>384737</v>
+        <v>493130</v>
       </c>
       <c r="H11" s="11">
-        <v>493130</v>
+        <v>734434</v>
       </c>
       <c r="I11" s="11">
-        <v>734434</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1174080</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>4639312</v>
+        <v>6179615</v>
       </c>
       <c r="F12" s="9">
-        <v>6179615</v>
+        <v>7864073</v>
       </c>
       <c r="G12" s="9">
-        <v>7864073</v>
+        <v>10104618</v>
       </c>
       <c r="H12" s="9">
-        <v>10104618</v>
+        <v>28098128</v>
       </c>
       <c r="I12" s="9">
-        <v>28098128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44247391</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>166155284</v>
+        <v>342438543</v>
       </c>
       <c r="F13" s="13">
-        <v>342438543</v>
+        <v>531761510</v>
       </c>
       <c r="G13" s="13">
-        <v>531761510</v>
+        <v>630850697</v>
       </c>
       <c r="H13" s="13">
-        <v>630850697</v>
+        <v>1313471042</v>
       </c>
       <c r="I13" s="13">
-        <v>1313471042</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1934983365</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -863,51 +863,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>166155284</v>
+        <v>342438543</v>
       </c>
       <c r="F15" s="13">
-        <v>342438543</v>
+        <v>531761510</v>
       </c>
       <c r="G15" s="13">
-        <v>531761510</v>
+        <v>630850697</v>
       </c>
       <c r="H15" s="13">
-        <v>630850697</v>
+        <v>1313471042</v>
       </c>
       <c r="I15" s="13">
-        <v>1313471042</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1934983365</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-497890</v>
+        <v>-1773934</v>
       </c>
       <c r="F16" s="9">
-        <v>-1773934</v>
+        <v>-1696240</v>
       </c>
       <c r="G16" s="9">
-        <v>-1696240</v>
+        <v>-7192351</v>
       </c>
       <c r="H16" s="9">
-        <v>-7192351</v>
+        <v>-10350834</v>
       </c>
       <c r="I16" s="9">
-        <v>-10350834</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8363275</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -929,95 +929,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>165657394</v>
+        <v>340664609</v>
       </c>
       <c r="F18" s="15">
-        <v>340664609</v>
+        <v>530065270</v>
       </c>
       <c r="G18" s="15">
-        <v>530065270</v>
+        <v>623658346</v>
       </c>
       <c r="H18" s="15">
-        <v>623658346</v>
+        <v>1303120208</v>
       </c>
       <c r="I18" s="15">
-        <v>1303120208</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1943346640</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>2719077</v>
+        <v>4515295</v>
       </c>
       <c r="F19" s="11">
-        <v>4515295</v>
+        <v>14913594</v>
       </c>
       <c r="G19" s="11">
-        <v>14913594</v>
+        <v>29654305</v>
       </c>
       <c r="H19" s="11">
-        <v>29654305</v>
+        <v>16586091</v>
       </c>
       <c r="I19" s="11">
-        <v>16586091</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43469972</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-4515295</v>
+        <v>-14913594</v>
       </c>
       <c r="F20" s="9">
-        <v>-14913594</v>
+        <v>-22672631</v>
       </c>
       <c r="G20" s="9">
-        <v>-22672631</v>
+        <v>-16586091</v>
       </c>
       <c r="H20" s="9">
-        <v>-16586091</v>
+        <v>-43469972</v>
       </c>
       <c r="I20" s="9">
-        <v>-43469972</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-47546012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>163861176</v>
+        <v>330266310</v>
       </c>
       <c r="F21" s="13">
-        <v>330266310</v>
+        <v>522306233</v>
       </c>
       <c r="G21" s="13">
-        <v>522306233</v>
+        <v>636726560</v>
       </c>
       <c r="H21" s="13">
-        <v>636726560</v>
+        <v>1276236327</v>
       </c>
       <c r="I21" s="13">
-        <v>1276236327</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1939270600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1039,29 +1039,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>163861176</v>
+        <v>330266310</v>
       </c>
       <c r="F23" s="13">
-        <v>330266310</v>
+        <v>522306233</v>
       </c>
       <c r="G23" s="13">
-        <v>522306233</v>
+        <v>636726560</v>
       </c>
       <c r="H23" s="13">
-        <v>636726560</v>
+        <v>1276236327</v>
       </c>
       <c r="I23" s="13">
-        <v>1276236327</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1939270600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1071,7 +1071,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1081,7 +1081,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1091,7 +1091,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1123,7 +1123,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1134,11 +1134,11 @@
       <c r="E29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>26</v>
@@ -1147,7 +1147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1155,23 +1155,23 @@
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>302502</v>
       </c>
       <c r="F30" s="11">
-        <v>302502</v>
+        <v>347528</v>
       </c>
       <c r="G30" s="11">
-        <v>347528</v>
+        <v>351094</v>
       </c>
       <c r="H30" s="11">
-        <v>351094</v>
+        <v>340639</v>
       </c>
       <c r="I30" s="11">
-        <v>340639</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1179,11 +1179,11 @@
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>26</v>
@@ -1195,29 +1195,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>302502</v>
       </c>
       <c r="F32" s="13">
-        <v>302502</v>
+        <v>347528</v>
       </c>
       <c r="G32" s="13">
-        <v>347528</v>
+        <v>351094</v>
       </c>
       <c r="H32" s="13">
-        <v>351094</v>
+        <v>340639</v>
       </c>
       <c r="I32" s="13">
-        <v>340639</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1227,7 +1227,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1237,7 +1237,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1247,7 +1247,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1290,12 +1290,12 @@
       <c r="E38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="9">
         <v>96</v>
       </c>
+      <c r="G38" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H38" s="9" t="s">
         <v>26</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
@@ -1311,23 +1311,23 @@
         <v>25</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>26</v>
+      <c r="E39" s="11">
+        <v>14087082</v>
       </c>
       <c r="F39" s="11">
-        <v>14087082</v>
+        <v>13471884</v>
       </c>
       <c r="G39" s="11">
-        <v>13471884</v>
+        <v>13006962</v>
       </c>
       <c r="H39" s="11">
-        <v>13006962</v>
+        <v>12877331</v>
       </c>
       <c r="I39" s="11">
-        <v>12877331</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13511374</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1335,12 +1335,12 @@
         <v>25</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="9">
+      <c r="E40" s="9">
         <v>5217</v>
       </c>
+      <c r="F40" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G40" s="9" t="s">
         <v>26</v>
       </c>
@@ -1351,29 +1351,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>14092299</v>
       </c>
       <c r="F41" s="13">
-        <v>14092299</v>
+        <v>13471980</v>
       </c>
       <c r="G41" s="13">
-        <v>13471980</v>
+        <v>13006962</v>
       </c>
       <c r="H41" s="13">
-        <v>13006962</v>
+        <v>12877331</v>
       </c>
       <c r="I41" s="13">
-        <v>12877331</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13511374</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1383,7 +1383,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1393,7 +1393,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1446,12 +1446,12 @@
       <c r="E47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="F47" s="9">
         <v>96</v>
       </c>
+      <c r="G47" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H47" s="9" t="s">
         <v>26</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -1467,23 +1467,23 @@
         <v>25</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
+      <c r="E48" s="11">
+        <v>14042056</v>
       </c>
       <c r="F48" s="11">
-        <v>14042056</v>
+        <v>13468318</v>
       </c>
       <c r="G48" s="11">
-        <v>13468318</v>
+        <v>13017417</v>
       </c>
       <c r="H48" s="11">
-        <v>13017417</v>
+        <v>12968843</v>
       </c>
       <c r="I48" s="11">
-        <v>12968843</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13528114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1491,12 +1491,12 @@
         <v>25</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="9">
+      <c r="E49" s="9">
         <v>5217</v>
       </c>
+      <c r="F49" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G49" s="9" t="s">
         <v>26</v>
       </c>
@@ -1507,29 +1507,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>0</v>
+        <v>14047273</v>
       </c>
       <c r="F50" s="13">
-        <v>14047273</v>
+        <v>13468414</v>
       </c>
       <c r="G50" s="13">
-        <v>13468414</v>
+        <v>13017417</v>
       </c>
       <c r="H50" s="13">
-        <v>13017417</v>
+        <v>12968843</v>
       </c>
       <c r="I50" s="13">
-        <v>12968843</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13528114</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1539,7 +1539,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1549,7 +1549,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1559,7 +1559,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1591,7 +1591,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -1602,11 +1602,11 @@
       <c r="E56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>26</v>
@@ -1615,7 +1615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
@@ -1623,23 +1623,23 @@
         <v>25</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>26</v>
+      <c r="E57" s="11">
+        <v>347528</v>
       </c>
       <c r="F57" s="11">
-        <v>347528</v>
+        <v>351094</v>
       </c>
       <c r="G57" s="11">
-        <v>351094</v>
+        <v>340639</v>
       </c>
       <c r="H57" s="11">
-        <v>340639</v>
+        <v>249127</v>
       </c>
       <c r="I57" s="11">
-        <v>249127</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>232386</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>28</v>
       </c>
@@ -1647,11 +1647,11 @@
         <v>25</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>26</v>
@@ -1663,29 +1663,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>0</v>
+        <v>347528</v>
       </c>
       <c r="F59" s="13">
-        <v>347528</v>
+        <v>351094</v>
       </c>
       <c r="G59" s="13">
-        <v>351094</v>
+        <v>340639</v>
       </c>
       <c r="H59" s="13">
-        <v>340639</v>
+        <v>249127</v>
       </c>
       <c r="I59" s="13">
-        <v>249127</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>232386</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1705,7 +1705,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1715,7 +1715,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>32</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1747,7 +1747,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1758,11 +1758,11 @@
       <c r="E65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>26</v>
@@ -1771,7 +1771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1779,23 +1779,23 @@
         <v>33</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
+      <c r="E66" s="11">
+        <v>3419549</v>
       </c>
       <c r="F66" s="11">
-        <v>3419549</v>
+        <v>8313788</v>
       </c>
       <c r="G66" s="11">
-        <v>8313788</v>
+        <v>13646875</v>
       </c>
       <c r="H66" s="11">
-        <v>13646875</v>
+        <v>16230720</v>
       </c>
       <c r="I66" s="11">
-        <v>16230720</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24677410</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1803,11 +1803,11 @@
         <v>33</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="9">
-        <v>0</v>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>26</v>
@@ -1819,29 +1819,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>0</v>
+        <v>3419549</v>
       </c>
       <c r="F68" s="13">
-        <v>3419549</v>
+        <v>8313788</v>
       </c>
       <c r="G68" s="13">
-        <v>8313788</v>
+        <v>13646875</v>
       </c>
       <c r="H68" s="13">
-        <v>13646875</v>
+        <v>16230720</v>
       </c>
       <c r="I68" s="13">
-        <v>16230720</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24677410</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1851,7 +1851,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1861,7 +1861,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>34</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1903,7 +1903,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -1914,12 +1914,12 @@
       <c r="E74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="9">
+      <c r="F74" s="9">
         <v>4704</v>
       </c>
+      <c r="G74" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H74" s="9" t="s">
         <v>26</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>27</v>
       </c>
@@ -1935,23 +1935,23 @@
         <v>33</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>26</v>
+      <c r="E75" s="11">
+        <v>340816853</v>
       </c>
       <c r="F75" s="11">
-        <v>340816853</v>
+        <v>528841083</v>
       </c>
       <c r="G75" s="11">
-        <v>528841083</v>
+        <v>622836794</v>
       </c>
       <c r="H75" s="11">
-        <v>622836794</v>
+        <v>1293085170</v>
       </c>
       <c r="I75" s="11">
-        <v>1293085170</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1897343342</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>28</v>
       </c>
@@ -1959,12 +1959,12 @@
         <v>33</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="E76" s="9">
         <v>44262</v>
       </c>
+      <c r="F76" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G76" s="9" t="s">
         <v>26</v>
       </c>
@@ -1975,29 +1975,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>0</v>
+        <v>340861115</v>
       </c>
       <c r="F77" s="13">
-        <v>340861115</v>
+        <v>528845787</v>
       </c>
       <c r="G77" s="13">
-        <v>528845787</v>
+        <v>622836794</v>
       </c>
       <c r="H77" s="13">
-        <v>622836794</v>
+        <v>1293085170</v>
       </c>
       <c r="I77" s="13">
-        <v>1293085170</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1897343342</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2007,7 +2007,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2017,7 +2017,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2027,7 +2027,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>35</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2059,7 +2059,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2070,12 +2070,12 @@
       <c r="E83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="F83" s="9">
         <v>4704</v>
       </c>
+      <c r="G83" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H83" s="9" t="s">
         <v>26</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2091,23 +2091,23 @@
         <v>33</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
+      <c r="E84" s="11">
+        <v>335922614</v>
       </c>
       <c r="F84" s="11">
-        <v>335922614</v>
+        <v>523507996</v>
       </c>
       <c r="G84" s="11">
-        <v>523507996</v>
+        <v>620252949</v>
       </c>
       <c r="H84" s="11">
-        <v>620252949</v>
+        <v>1284638480</v>
       </c>
       <c r="I84" s="11">
-        <v>1284638480</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1889561894</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2115,12 +2115,12 @@
         <v>33</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E85" s="9">
         <v>44262</v>
       </c>
+      <c r="F85" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G85" s="9" t="s">
         <v>26</v>
       </c>
@@ -2131,29 +2131,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>335966876</v>
       </c>
       <c r="F86" s="13">
-        <v>335966876</v>
+        <v>523512700</v>
       </c>
       <c r="G86" s="13">
-        <v>523512700</v>
+        <v>620252949</v>
       </c>
       <c r="H86" s="13">
-        <v>620252949</v>
+        <v>1284638480</v>
       </c>
       <c r="I86" s="13">
-        <v>1284638480</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1889561894</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2163,7 +2163,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2173,7 +2173,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2183,7 +2183,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>36</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2215,7 +2215,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2226,11 +2226,11 @@
       <c r="E92" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="9">
-        <v>0</v>
+      <c r="F92" s="9">
+        <v>0</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>26</v>
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>27</v>
       </c>
@@ -2247,23 +2247,23 @@
         <v>33</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>26</v>
+      <c r="E93" s="11">
+        <v>8313788</v>
       </c>
       <c r="F93" s="11">
-        <v>8313788</v>
+        <v>13646875</v>
       </c>
       <c r="G93" s="11">
-        <v>13646875</v>
+        <v>16230720</v>
       </c>
       <c r="H93" s="11">
-        <v>16230720</v>
+        <v>24677410</v>
       </c>
       <c r="I93" s="11">
-        <v>24677410</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32458858</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2271,11 +2271,11 @@
         <v>33</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" s="9">
-        <v>0</v>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>26</v>
@@ -2287,29 +2287,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>0</v>
+        <v>8313788</v>
       </c>
       <c r="F95" s="13">
-        <v>8313788</v>
+        <v>13646875</v>
       </c>
       <c r="G95" s="13">
-        <v>13646875</v>
+        <v>16230720</v>
       </c>
       <c r="H95" s="13">
-        <v>16230720</v>
+        <v>24677410</v>
       </c>
       <c r="I95" s="13">
-        <v>24677410</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32458858</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2319,7 +2319,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2329,7 +2329,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2339,7 +2339,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>37</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2371,7 +2371,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>27</v>
       </c>
@@ -2379,23 +2379,23 @@
         <v>38</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>11304219</v>
       </c>
       <c r="F101" s="9">
-        <v>11304219</v>
+        <v>23922642</v>
       </c>
       <c r="G101" s="9">
-        <v>23922642</v>
+        <v>38869576</v>
       </c>
       <c r="H101" s="9">
-        <v>38869576</v>
+        <v>47647862</v>
       </c>
       <c r="I101" s="9">
-        <v>47647862</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99055940</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2405,7 +2405,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2415,7 +2415,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2425,7 +2425,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>39</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2457,7 +2457,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2468,12 +2468,12 @@
       <c r="E107" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="9">
+      <c r="F107" s="9">
         <v>49000000</v>
       </c>
+      <c r="G107" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H107" s="9" t="s">
         <v>26</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2489,23 +2489,23 @@
         <v>38</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
+      <c r="E108" s="11">
+        <v>24193573</v>
       </c>
       <c r="F108" s="11">
-        <v>24193573</v>
+        <v>39255169</v>
       </c>
       <c r="G108" s="11">
-        <v>39255169</v>
+        <v>47884878</v>
       </c>
       <c r="H108" s="11">
-        <v>47884878</v>
+        <v>100415620</v>
       </c>
       <c r="I108" s="11">
-        <v>100415620</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>140425640</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>28</v>
       </c>
@@ -2513,12 +2513,12 @@
         <v>38</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="9">
+      <c r="E109" s="9">
         <v>8484186</v>
       </c>
+      <c r="F109" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G109" s="9" t="s">
         <v>26</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2539,7 +2539,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2549,7 +2549,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2559,7 +2559,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>40</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2591,7 +2591,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>24</v>
       </c>
@@ -2602,12 +2602,12 @@
       <c r="E115" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="9">
+      <c r="F115" s="9">
         <v>49000000</v>
       </c>
+      <c r="G115" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H115" s="9" t="s">
         <v>26</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>27</v>
       </c>
@@ -2623,23 +2623,23 @@
         <v>38</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>26</v>
+      <c r="E116" s="11">
+        <v>23922609</v>
       </c>
       <c r="F116" s="11">
-        <v>23922609</v>
+        <v>38869590</v>
       </c>
       <c r="G116" s="11">
-        <v>38869590</v>
+        <v>47647928</v>
       </c>
       <c r="H116" s="11">
-        <v>47647928</v>
+        <v>99055751</v>
       </c>
       <c r="I116" s="11">
-        <v>99055751</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139676668</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>28</v>
       </c>
@@ -2647,12 +2647,12 @@
         <v>38</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
+      <c r="E117" s="9">
         <v>8484186</v>
       </c>
+      <c r="F117" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G117" s="9" t="s">
         <v>26</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2673,7 +2673,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2683,7 +2683,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2725,7 +2725,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>27</v>
       </c>
@@ -2733,23 +2733,23 @@
         <v>25</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>26</v>
+      <c r="E123" s="9">
+        <v>23922642</v>
       </c>
       <c r="F123" s="9">
-        <v>23922642</v>
+        <v>38869576</v>
       </c>
       <c r="G123" s="9">
-        <v>38869576</v>
+        <v>47647862</v>
       </c>
       <c r="H123" s="9">
-        <v>47647862</v>
+        <v>99055542</v>
       </c>
       <c r="I123" s="9">
-        <v>99055542</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139676478</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2769,7 +2769,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2779,7 +2779,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>42</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2811,7 +2811,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>43</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>44</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>45</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>46</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>47</v>
       </c>
@@ -2921,73 +2921,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>920985</v>
+        <v>1039552</v>
       </c>
       <c r="F134" s="11">
-        <v>1039552</v>
+        <v>995052</v>
       </c>
       <c r="G134" s="11">
-        <v>995052</v>
+        <v>1107849</v>
       </c>
       <c r="H134" s="11">
-        <v>1107849</v>
+        <v>14852130</v>
       </c>
       <c r="I134" s="11">
-        <v>14852130</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24674746</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>959295</v>
+        <v>1148737</v>
       </c>
       <c r="F135" s="9">
-        <v>1148737</v>
+        <v>1543109</v>
       </c>
       <c r="G135" s="9">
-        <v>1543109</v>
+        <v>1292738</v>
       </c>
       <c r="H135" s="9">
-        <v>1292738</v>
+        <v>2035908</v>
       </c>
       <c r="I135" s="9">
-        <v>2035908</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1623525</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>973767</v>
+        <v>942176</v>
       </c>
       <c r="F136" s="11">
-        <v>942176</v>
+        <v>1306352</v>
       </c>
       <c r="G136" s="11">
-        <v>1306352</v>
+        <v>1655125</v>
       </c>
       <c r="H136" s="11">
-        <v>1655125</v>
+        <v>2380980</v>
       </c>
       <c r="I136" s="11">
-        <v>2380980</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3618430</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>51</v>
       </c>
@@ -3009,48 +3009,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>2012994</v>
+        <v>3049150</v>
       </c>
       <c r="F138" s="11">
-        <v>3049150</v>
+        <v>4019560</v>
       </c>
       <c r="G138" s="11">
-        <v>4019560</v>
+        <v>6048906</v>
       </c>
       <c r="H138" s="11">
-        <v>6048906</v>
+        <v>8829110</v>
       </c>
       <c r="I138" s="11">
-        <v>8829110</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14330690</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15">
-        <v>4867041</v>
+        <v>6179615</v>
       </c>
       <c r="F139" s="15">
-        <v>6179615</v>
+        <v>7864073</v>
       </c>
       <c r="G139" s="15">
-        <v>7864073</v>
+        <v>10104618</v>
       </c>
       <c r="H139" s="15">
-        <v>10104618</v>
+        <v>28098128</v>
       </c>
       <c r="I139" s="15">
-        <v>28098128</v>
+        <v>44247391</v>
       </c>
     </row>
   </sheetData>
